--- a/biology/Biochimie/Allose/Allose.xlsx
+++ b/biology/Biochimie/Allose/Allose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Allose est un aldohexose rare. 
 Il est l'épimère en C3 du glucose (c’est-à-dire que la configuration spatiale du carbone 3 est inversée par rapport au glucose).
 Il a été isolé dans les feuilles d'un arbuste africain Protea rubropilosa. 
 Il est soluble dans l'eau et insoluble dans le méthanol.
-Dans l'eau, la forme tautomère prédominante est la forme bêta-D-allopyranose  (70 %)[2].
+Dans l'eau, la forme tautomère prédominante est la forme bêta-D-allopyranose  (70 %).
 </t>
         </is>
       </c>
